--- a/Boca Oct18/Score.xlsx
+++ b/Boca Oct18/Score.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="25">
   <si>
     <t>A</t>
   </si>
@@ -79,6 +79,18 @@
   </si>
   <si>
     <t>i.cpp</t>
+  </si>
+  <si>
+    <t>Salvador</t>
+  </si>
+  <si>
+    <t>Alberto</t>
+  </si>
+  <si>
+    <t>Alfredo</t>
+  </si>
+  <si>
+    <t>Alfredo,Alberto</t>
   </si>
 </sst>
 </file>
@@ -1287,15 +1299,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <v>896</v>
       </c>
@@ -1323,7 +1335,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>897</v>
       </c>
@@ -1350,8 +1362,11 @@
         <f>IF(E2="YES ", G2, 20)</f>
         <v>19</v>
       </c>
+      <c r="I2" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>898</v>
       </c>
@@ -1378,8 +1393,11 @@
         <f t="shared" ref="H3:H10" si="1">IF(E3="YES ", G3, 20)</f>
         <v>41</v>
       </c>
+      <c r="I3" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>899</v>
       </c>
@@ -1406,8 +1424,11 @@
         <f t="shared" si="1"/>
         <v>68</v>
       </c>
+      <c r="I4" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>900</v>
       </c>
@@ -1434,8 +1455,11 @@
         <f t="shared" si="1"/>
         <v>74</v>
       </c>
+      <c r="I5" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>901</v>
       </c>
@@ -1462,8 +1486,11 @@
         <f t="shared" si="1"/>
         <v>103</v>
       </c>
+      <c r="I6" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>902</v>
       </c>
@@ -1490,8 +1517,11 @@
         <f t="shared" si="1"/>
         <v>156</v>
       </c>
+      <c r="I7" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>907</v>
       </c>
@@ -1518,8 +1548,11 @@
         <f t="shared" si="1"/>
         <v>231</v>
       </c>
+      <c r="I8" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>908</v>
       </c>
@@ -1546,8 +1579,11 @@
         <f t="shared" si="1"/>
         <v>270</v>
       </c>
+      <c r="I9" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>909</v>
       </c>
@@ -1574,8 +1610,11 @@
         <f t="shared" si="1"/>
         <v>282</v>
       </c>
+      <c r="I10" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H11">
         <f>SUM(H1:H10)</f>
         <v>1264</v>
